--- a/DestroyViruses/Assets/Tables/TableWeaponSpeedLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeaponSpeedLevel.xlsx
@@ -93,8 +93,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -112,9 +112,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,7 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -142,63 +188,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,25 +211,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,13 +325,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,19 +361,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,25 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,73 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,11 +467,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,26 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,8 +539,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,9 +1068,9 @@
   <dimension ref="A1:K512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
+      <selection pane="bottomLeft" activeCell="G507" sqref="G507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -14299,16 +14299,16 @@
         <v>2</v>
       </c>
       <c r="D414" s="5">
-        <v>3.98</v>
+        <v>3.995</v>
       </c>
       <c r="E414" s="5">
         <v>1</v>
       </c>
       <c r="F414" s="5">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G414" s="5">
-        <v>1.005</v>
+        <v>1.01</v>
       </c>
       <c r="H414" s="5">
         <v>1</v>
@@ -14332,16 +14332,16 @@
         <v>3</v>
       </c>
       <c r="D415" s="5">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="E415" s="5">
         <v>1</v>
       </c>
       <c r="F415" s="5">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="G415" s="5">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="H415" s="5">
         <v>1</v>
@@ -14365,16 +14365,16 @@
         <v>4</v>
       </c>
       <c r="D416" s="5">
-        <v>3.94</v>
+        <v>3.985</v>
       </c>
       <c r="E416" s="5">
         <v>1</v>
       </c>
       <c r="F416" s="5">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="G416" s="5">
-        <v>1.015</v>
+        <v>1.03</v>
       </c>
       <c r="H416" s="5">
         <v>1</v>
@@ -14398,16 +14398,16 @@
         <v>5</v>
       </c>
       <c r="D417" s="5">
-        <v>3.92</v>
+        <v>3.98</v>
       </c>
       <c r="E417" s="5">
         <v>1</v>
       </c>
       <c r="F417" s="5">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="G417" s="5">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="H417" s="5">
         <v>1</v>
@@ -14431,16 +14431,16 @@
         <v>6</v>
       </c>
       <c r="D418" s="5">
-        <v>3.9</v>
+        <v>3.975</v>
       </c>
       <c r="E418" s="5">
         <v>1</v>
       </c>
       <c r="F418" s="5">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="G418" s="5">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="H418" s="5">
         <v>1</v>
@@ -14464,16 +14464,16 @@
         <v>7</v>
       </c>
       <c r="D419" s="5">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="E419" s="5">
         <v>1</v>
       </c>
       <c r="F419" s="5">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="G419" s="5">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="H419" s="5">
         <v>1</v>
@@ -14497,16 +14497,16 @@
         <v>8</v>
       </c>
       <c r="D420" s="5">
-        <v>3.86</v>
+        <v>3.965</v>
       </c>
       <c r="E420" s="5">
         <v>1</v>
       </c>
       <c r="F420" s="5">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="G420" s="5">
-        <v>1.035</v>
+        <v>1.07</v>
       </c>
       <c r="H420" s="5">
         <v>1</v>
@@ -14530,16 +14530,16 @@
         <v>9</v>
       </c>
       <c r="D421" s="5">
-        <v>3.84</v>
+        <v>3.96</v>
       </c>
       <c r="E421" s="5">
         <v>1</v>
       </c>
       <c r="F421" s="5">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="G421" s="5">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="H421" s="5">
         <v>1</v>
@@ -14563,16 +14563,16 @@
         <v>10</v>
       </c>
       <c r="D422" s="5">
-        <v>3.82</v>
+        <v>3.955</v>
       </c>
       <c r="E422" s="5">
         <v>1</v>
       </c>
       <c r="F422" s="5">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="G422" s="5">
-        <v>1.045</v>
+        <v>1.09</v>
       </c>
       <c r="H422" s="5">
         <v>1</v>
@@ -14596,16 +14596,16 @@
         <v>11</v>
       </c>
       <c r="D423" s="5">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="E423" s="5">
         <v>1</v>
       </c>
       <c r="F423" s="5">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G423" s="5">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="H423" s="5">
         <v>1</v>
@@ -14629,16 +14629,16 @@
         <v>12</v>
       </c>
       <c r="D424" s="5">
-        <v>3.78</v>
+        <v>3.945</v>
       </c>
       <c r="E424" s="5">
         <v>1</v>
       </c>
       <c r="F424" s="5">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="G424" s="5">
-        <v>1.055</v>
+        <v>1.11</v>
       </c>
       <c r="H424" s="5">
         <v>1</v>
@@ -14662,16 +14662,16 @@
         <v>13</v>
       </c>
       <c r="D425" s="5">
-        <v>3.76</v>
+        <v>3.94</v>
       </c>
       <c r="E425" s="5">
         <v>1</v>
       </c>
       <c r="F425" s="5">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="G425" s="5">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="H425" s="5">
         <v>1</v>
@@ -14695,16 +14695,16 @@
         <v>14</v>
       </c>
       <c r="D426" s="5">
-        <v>3.74</v>
+        <v>3.935</v>
       </c>
       <c r="E426" s="5">
         <v>1</v>
       </c>
       <c r="F426" s="5">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="G426" s="5">
-        <v>1.065</v>
+        <v>1.13</v>
       </c>
       <c r="H426" s="5">
         <v>1</v>
@@ -14728,16 +14728,16 @@
         <v>15</v>
       </c>
       <c r="D427" s="5">
-        <v>3.72</v>
+        <v>3.93</v>
       </c>
       <c r="E427" s="5">
         <v>1</v>
       </c>
       <c r="F427" s="5">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="G427" s="5">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="H427" s="5">
         <v>1</v>
@@ -14761,16 +14761,16 @@
         <v>16</v>
       </c>
       <c r="D428" s="5">
-        <v>3.7</v>
+        <v>3.925</v>
       </c>
       <c r="E428" s="5">
         <v>1</v>
       </c>
       <c r="F428" s="5">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="G428" s="5">
-        <v>1.075</v>
+        <v>1.15</v>
       </c>
       <c r="H428" s="5">
         <v>1</v>
@@ -14794,16 +14794,16 @@
         <v>17</v>
       </c>
       <c r="D429" s="5">
-        <v>3.68</v>
+        <v>3.92</v>
       </c>
       <c r="E429" s="5">
         <v>1</v>
       </c>
       <c r="F429" s="5">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="G429" s="5">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="H429" s="5">
         <v>1</v>
@@ -14827,16 +14827,16 @@
         <v>18</v>
       </c>
       <c r="D430" s="5">
-        <v>3.66</v>
+        <v>3.915</v>
       </c>
       <c r="E430" s="5">
         <v>1</v>
       </c>
       <c r="F430" s="5">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="G430" s="5">
-        <v>1.085</v>
+        <v>1.17</v>
       </c>
       <c r="H430" s="5">
         <v>1</v>
@@ -14860,16 +14860,16 @@
         <v>19</v>
       </c>
       <c r="D431" s="5">
-        <v>3.64</v>
+        <v>3.91</v>
       </c>
       <c r="E431" s="5">
         <v>1</v>
       </c>
       <c r="F431" s="5">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="G431" s="5">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="H431" s="5">
         <v>1</v>
@@ -14893,16 +14893,16 @@
         <v>20</v>
       </c>
       <c r="D432" s="5">
-        <v>3.62</v>
+        <v>3.905</v>
       </c>
       <c r="E432" s="5">
         <v>1</v>
       </c>
       <c r="F432" s="5">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="G432" s="5">
-        <v>1.095</v>
+        <v>1.19</v>
       </c>
       <c r="H432" s="5">
         <v>1</v>
@@ -14926,16 +14926,16 @@
         <v>21</v>
       </c>
       <c r="D433" s="5">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="E433" s="5">
         <v>1</v>
       </c>
       <c r="F433" s="5">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G433" s="5">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H433" s="5">
         <v>1</v>
@@ -14959,16 +14959,16 @@
         <v>22</v>
       </c>
       <c r="D434" s="5">
-        <v>3.58</v>
+        <v>3.895</v>
       </c>
       <c r="E434" s="5">
         <v>1</v>
       </c>
       <c r="F434" s="5">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="G434" s="5">
-        <v>1.105</v>
+        <v>1.21</v>
       </c>
       <c r="H434" s="5">
         <v>1</v>
@@ -14992,16 +14992,16 @@
         <v>23</v>
       </c>
       <c r="D435" s="5">
-        <v>3.56</v>
+        <v>3.89</v>
       </c>
       <c r="E435" s="5">
         <v>1</v>
       </c>
       <c r="F435" s="5">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="G435" s="5">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="H435" s="5">
         <v>1</v>
@@ -15025,16 +15025,16 @@
         <v>24</v>
       </c>
       <c r="D436" s="5">
-        <v>3.54</v>
+        <v>3.885</v>
       </c>
       <c r="E436" s="5">
         <v>1</v>
       </c>
       <c r="F436" s="5">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="G436" s="5">
-        <v>1.115</v>
+        <v>1.23</v>
       </c>
       <c r="H436" s="5">
         <v>1</v>
@@ -15058,16 +15058,16 @@
         <v>25</v>
       </c>
       <c r="D437" s="5">
-        <v>3.52</v>
+        <v>3.88</v>
       </c>
       <c r="E437" s="5">
         <v>1</v>
       </c>
       <c r="F437" s="5">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="G437" s="5">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="H437" s="5">
         <v>1</v>
@@ -15091,16 +15091,16 @@
         <v>26</v>
       </c>
       <c r="D438" s="5">
-        <v>3.5</v>
+        <v>3.875</v>
       </c>
       <c r="E438" s="5">
         <v>1</v>
       </c>
       <c r="F438" s="5">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G438" s="5">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="H438" s="5">
         <v>1</v>
@@ -15124,16 +15124,16 @@
         <v>27</v>
       </c>
       <c r="D439" s="5">
-        <v>3.48</v>
+        <v>3.87</v>
       </c>
       <c r="E439" s="5">
         <v>1</v>
       </c>
       <c r="F439" s="5">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="G439" s="5">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="H439" s="5">
         <v>1</v>
@@ -15157,16 +15157,16 @@
         <v>28</v>
       </c>
       <c r="D440" s="5">
-        <v>3.46</v>
+        <v>3.865</v>
       </c>
       <c r="E440" s="5">
         <v>1</v>
       </c>
       <c r="F440" s="5">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="G440" s="5">
-        <v>1.135</v>
+        <v>1.27</v>
       </c>
       <c r="H440" s="5">
         <v>1</v>
@@ -15190,16 +15190,16 @@
         <v>29</v>
       </c>
       <c r="D441" s="5">
-        <v>3.44</v>
+        <v>3.86</v>
       </c>
       <c r="E441" s="5">
         <v>1</v>
       </c>
       <c r="F441" s="5">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="G441" s="5">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="H441" s="5">
         <v>1</v>
@@ -15223,16 +15223,16 @@
         <v>30</v>
       </c>
       <c r="D442" s="5">
-        <v>3.42</v>
+        <v>3.855</v>
       </c>
       <c r="E442" s="5">
         <v>1</v>
       </c>
       <c r="F442" s="5">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="G442" s="5">
-        <v>1.145</v>
+        <v>1.29</v>
       </c>
       <c r="H442" s="5">
         <v>1</v>
@@ -15256,16 +15256,16 @@
         <v>31</v>
       </c>
       <c r="D443" s="5">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="E443" s="5">
         <v>1</v>
       </c>
       <c r="F443" s="5">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="G443" s="5">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="H443" s="5">
         <v>1</v>
@@ -15289,16 +15289,16 @@
         <v>32</v>
       </c>
       <c r="D444" s="5">
-        <v>3.38</v>
+        <v>3.845</v>
       </c>
       <c r="E444" s="5">
         <v>1</v>
       </c>
       <c r="F444" s="5">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="G444" s="5">
-        <v>1.155</v>
+        <v>1.31</v>
       </c>
       <c r="H444" s="5">
         <v>1</v>
@@ -15322,16 +15322,16 @@
         <v>33</v>
       </c>
       <c r="D445" s="5">
-        <v>3.36</v>
+        <v>3.84</v>
       </c>
       <c r="E445" s="5">
         <v>1</v>
       </c>
       <c r="F445" s="5">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="G445" s="5">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="H445" s="5">
         <v>1</v>
@@ -15355,16 +15355,16 @@
         <v>34</v>
       </c>
       <c r="D446" s="5">
-        <v>3.34</v>
+        <v>3.835</v>
       </c>
       <c r="E446" s="5">
         <v>1</v>
       </c>
       <c r="F446" s="5">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="G446" s="5">
-        <v>1.165</v>
+        <v>1.33</v>
       </c>
       <c r="H446" s="5">
         <v>1</v>
@@ -15388,16 +15388,16 @@
         <v>35</v>
       </c>
       <c r="D447" s="5">
-        <v>3.32</v>
+        <v>3.83</v>
       </c>
       <c r="E447" s="5">
         <v>1</v>
       </c>
       <c r="F447" s="5">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="G447" s="5">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="H447" s="5">
         <v>1</v>
@@ -15421,16 +15421,16 @@
         <v>36</v>
       </c>
       <c r="D448" s="5">
-        <v>3.3</v>
+        <v>3.825</v>
       </c>
       <c r="E448" s="5">
         <v>1</v>
       </c>
       <c r="F448" s="5">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="G448" s="5">
-        <v>1.175</v>
+        <v>1.35</v>
       </c>
       <c r="H448" s="5">
         <v>1</v>
@@ -15454,16 +15454,16 @@
         <v>37</v>
       </c>
       <c r="D449" s="5">
-        <v>3.28</v>
+        <v>3.82</v>
       </c>
       <c r="E449" s="5">
         <v>1</v>
       </c>
       <c r="F449" s="5">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="G449" s="5">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="H449" s="5">
         <v>1</v>
@@ -15487,16 +15487,16 @@
         <v>38</v>
       </c>
       <c r="D450" s="5">
-        <v>3.26</v>
+        <v>3.815</v>
       </c>
       <c r="E450" s="5">
         <v>1</v>
       </c>
       <c r="F450" s="5">
-        <v>1.74</v>
+        <v>1.37</v>
       </c>
       <c r="G450" s="5">
-        <v>1.185</v>
+        <v>1.37</v>
       </c>
       <c r="H450" s="5">
         <v>1</v>
@@ -15520,16 +15520,16 @@
         <v>39</v>
       </c>
       <c r="D451" s="5">
-        <v>3.24</v>
+        <v>3.81</v>
       </c>
       <c r="E451" s="5">
         <v>1</v>
       </c>
       <c r="F451" s="5">
-        <v>1.76</v>
+        <v>1.38</v>
       </c>
       <c r="G451" s="5">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="H451" s="5">
         <v>1</v>
@@ -15553,16 +15553,16 @@
         <v>40</v>
       </c>
       <c r="D452" s="5">
-        <v>3.22</v>
+        <v>3.805</v>
       </c>
       <c r="E452" s="5">
         <v>1</v>
       </c>
       <c r="F452" s="5">
-        <v>1.78</v>
+        <v>1.39</v>
       </c>
       <c r="G452" s="5">
-        <v>1.195</v>
+        <v>1.39</v>
       </c>
       <c r="H452" s="5">
         <v>1</v>
@@ -15586,16 +15586,16 @@
         <v>41</v>
       </c>
       <c r="D453" s="5">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="E453" s="5">
         <v>1</v>
       </c>
       <c r="F453" s="5">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="G453" s="5">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H453" s="5">
         <v>1</v>
@@ -15619,16 +15619,16 @@
         <v>42</v>
       </c>
       <c r="D454" s="5">
-        <v>3.18</v>
+        <v>3.795</v>
       </c>
       <c r="E454" s="5">
         <v>1</v>
       </c>
       <c r="F454" s="5">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="G454" s="5">
-        <v>1.205</v>
+        <v>1.41</v>
       </c>
       <c r="H454" s="5">
         <v>1</v>
@@ -15652,16 +15652,16 @@
         <v>43</v>
       </c>
       <c r="D455" s="5">
-        <v>3.16</v>
+        <v>3.79</v>
       </c>
       <c r="E455" s="5">
         <v>1</v>
       </c>
       <c r="F455" s="5">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="G455" s="5">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="H455" s="5">
         <v>1</v>
@@ -15685,16 +15685,16 @@
         <v>44</v>
       </c>
       <c r="D456" s="5">
-        <v>3.14</v>
+        <v>3.785</v>
       </c>
       <c r="E456" s="5">
         <v>1</v>
       </c>
       <c r="F456" s="5">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="G456" s="5">
-        <v>1.215</v>
+        <v>1.43</v>
       </c>
       <c r="H456" s="5">
         <v>1</v>
@@ -15718,16 +15718,16 @@
         <v>45</v>
       </c>
       <c r="D457" s="5">
-        <v>3.12</v>
+        <v>3.78</v>
       </c>
       <c r="E457" s="5">
         <v>1</v>
       </c>
       <c r="F457" s="5">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="G457" s="5">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="H457" s="5">
         <v>1</v>
@@ -15751,16 +15751,16 @@
         <v>46</v>
       </c>
       <c r="D458" s="5">
-        <v>3.1</v>
+        <v>3.775</v>
       </c>
       <c r="E458" s="5">
         <v>1</v>
       </c>
       <c r="F458" s="5">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="G458" s="5">
-        <v>1.225</v>
+        <v>1.45</v>
       </c>
       <c r="H458" s="5">
         <v>1</v>
@@ -15784,16 +15784,16 @@
         <v>47</v>
       </c>
       <c r="D459" s="5">
-        <v>3.08</v>
+        <v>3.77</v>
       </c>
       <c r="E459" s="5">
         <v>1</v>
       </c>
       <c r="F459" s="5">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="G459" s="5">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="H459" s="5">
         <v>1</v>
@@ -15817,16 +15817,16 @@
         <v>48</v>
       </c>
       <c r="D460" s="5">
-        <v>3.06</v>
+        <v>3.765</v>
       </c>
       <c r="E460" s="5">
         <v>1</v>
       </c>
       <c r="F460" s="5">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="G460" s="5">
-        <v>1.23499999999999</v>
+        <v>1.47</v>
       </c>
       <c r="H460" s="5">
         <v>1</v>
@@ -15850,16 +15850,16 @@
         <v>49</v>
       </c>
       <c r="D461" s="5">
-        <v>3.04</v>
+        <v>3.76</v>
       </c>
       <c r="E461" s="5">
         <v>1</v>
       </c>
       <c r="F461" s="5">
-        <v>1.96</v>
+        <v>1.48</v>
       </c>
       <c r="G461" s="5">
-        <v>1.23999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="H461" s="5">
         <v>1</v>
@@ -15883,16 +15883,16 @@
         <v>50</v>
       </c>
       <c r="D462" s="5">
-        <v>3.02</v>
+        <v>3.75500000000001</v>
       </c>
       <c r="E462" s="5">
         <v>1</v>
       </c>
       <c r="F462" s="5">
-        <v>1.98</v>
+        <v>1.49</v>
       </c>
       <c r="G462" s="5">
-        <v>1.24499999999999</v>
+        <v>1.49</v>
       </c>
       <c r="H462" s="5">
         <v>1</v>
@@ -15916,16 +15916,16 @@
         <v>51</v>
       </c>
       <c r="D463" s="5">
-        <v>3</v>
+        <v>3.75000000000001</v>
       </c>
       <c r="E463" s="5">
         <v>1</v>
       </c>
       <c r="F463" s="5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G463" s="5">
-        <v>1.24999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H463" s="5">
         <v>1</v>
@@ -15949,16 +15949,16 @@
         <v>52</v>
       </c>
       <c r="D464" s="5">
-        <v>2.98</v>
+        <v>3.74500000000001</v>
       </c>
       <c r="E464" s="5">
         <v>1</v>
       </c>
       <c r="F464" s="5">
-        <v>2.02</v>
+        <v>1.51</v>
       </c>
       <c r="G464" s="5">
-        <v>1.25499999999999</v>
+        <v>1.51</v>
       </c>
       <c r="H464" s="5">
         <v>1</v>
@@ -15982,16 +15982,16 @@
         <v>53</v>
       </c>
       <c r="D465" s="5">
-        <v>2.96</v>
+        <v>3.74000000000001</v>
       </c>
       <c r="E465" s="5">
         <v>1</v>
       </c>
       <c r="F465" s="5">
-        <v>2.04</v>
+        <v>1.52</v>
       </c>
       <c r="G465" s="5">
-        <v>1.25999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="H465" s="5">
         <v>1</v>
@@ -16015,16 +16015,16 @@
         <v>54</v>
       </c>
       <c r="D466" s="5">
-        <v>2.94</v>
+        <v>3.73500000000001</v>
       </c>
       <c r="E466" s="5">
         <v>1</v>
       </c>
       <c r="F466" s="5">
-        <v>2.06</v>
+        <v>1.53</v>
       </c>
       <c r="G466" s="5">
-        <v>1.26499999999999</v>
+        <v>1.53</v>
       </c>
       <c r="H466" s="5">
         <v>1</v>
@@ -16048,16 +16048,16 @@
         <v>55</v>
       </c>
       <c r="D467" s="5">
-        <v>2.92</v>
+        <v>3.73000000000001</v>
       </c>
       <c r="E467" s="5">
         <v>1</v>
       </c>
       <c r="F467" s="5">
-        <v>2.08</v>
+        <v>1.54</v>
       </c>
       <c r="G467" s="5">
-        <v>1.26999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="H467" s="5">
         <v>1</v>
@@ -16081,16 +16081,16 @@
         <v>56</v>
       </c>
       <c r="D468" s="5">
-        <v>2.9</v>
+        <v>3.72500000000001</v>
       </c>
       <c r="E468" s="5">
         <v>1</v>
       </c>
       <c r="F468" s="5">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="G468" s="5">
-        <v>1.27499999999999</v>
+        <v>1.55</v>
       </c>
       <c r="H468" s="5">
         <v>1</v>
@@ -16114,16 +16114,16 @@
         <v>57</v>
       </c>
       <c r="D469" s="5">
-        <v>2.88</v>
+        <v>3.72000000000001</v>
       </c>
       <c r="E469" s="5">
         <v>1</v>
       </c>
       <c r="F469" s="5">
-        <v>2.12</v>
+        <v>1.56</v>
       </c>
       <c r="G469" s="5">
-        <v>1.27999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="H469" s="5">
         <v>1</v>
@@ -16147,16 +16147,16 @@
         <v>58</v>
       </c>
       <c r="D470" s="5">
-        <v>2.86</v>
+        <v>3.71500000000001</v>
       </c>
       <c r="E470" s="5">
         <v>1</v>
       </c>
       <c r="F470" s="5">
-        <v>2.14</v>
+        <v>1.57</v>
       </c>
       <c r="G470" s="5">
-        <v>1.28499999999999</v>
+        <v>1.57</v>
       </c>
       <c r="H470" s="5">
         <v>1</v>
@@ -16180,16 +16180,16 @@
         <v>59</v>
       </c>
       <c r="D471" s="5">
-        <v>2.84</v>
+        <v>3.71000000000001</v>
       </c>
       <c r="E471" s="5">
         <v>1</v>
       </c>
       <c r="F471" s="5">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="G471" s="5">
-        <v>1.28999999999999</v>
+        <v>1.58</v>
       </c>
       <c r="H471" s="5">
         <v>1</v>
@@ -16213,16 +16213,16 @@
         <v>60</v>
       </c>
       <c r="D472" s="5">
-        <v>2.82</v>
+        <v>3.70500000000001</v>
       </c>
       <c r="E472" s="5">
         <v>1</v>
       </c>
       <c r="F472" s="5">
-        <v>2.18</v>
+        <v>1.59</v>
       </c>
       <c r="G472" s="5">
-        <v>1.29499999999999</v>
+        <v>1.59</v>
       </c>
       <c r="H472" s="5">
         <v>1</v>
@@ -16246,16 +16246,16 @@
         <v>61</v>
       </c>
       <c r="D473" s="5">
-        <v>2.8</v>
+        <v>3.70000000000001</v>
       </c>
       <c r="E473" s="5">
         <v>1</v>
       </c>
       <c r="F473" s="5">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="G473" s="5">
-        <v>1.29999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H473" s="5">
         <v>1</v>
@@ -16279,16 +16279,16 @@
         <v>62</v>
       </c>
       <c r="D474" s="5">
-        <v>2.78</v>
+        <v>3.69500000000001</v>
       </c>
       <c r="E474" s="5">
         <v>1</v>
       </c>
       <c r="F474" s="5">
-        <v>2.22</v>
+        <v>1.61</v>
       </c>
       <c r="G474" s="5">
-        <v>1.30499999999999</v>
+        <v>1.61</v>
       </c>
       <c r="H474" s="5">
         <v>1</v>
@@ -16312,16 +16312,16 @@
         <v>63</v>
       </c>
       <c r="D475" s="5">
-        <v>2.76</v>
+        <v>3.69000000000001</v>
       </c>
       <c r="E475" s="5">
         <v>1</v>
       </c>
       <c r="F475" s="5">
-        <v>2.24</v>
+        <v>1.62</v>
       </c>
       <c r="G475" s="5">
-        <v>1.30999999999999</v>
+        <v>1.62</v>
       </c>
       <c r="H475" s="5">
         <v>1</v>
@@ -16345,16 +16345,16 @@
         <v>64</v>
       </c>
       <c r="D476" s="5">
-        <v>2.74</v>
+        <v>3.68500000000001</v>
       </c>
       <c r="E476" s="5">
         <v>1</v>
       </c>
       <c r="F476" s="5">
-        <v>2.26</v>
+        <v>1.63</v>
       </c>
       <c r="G476" s="5">
-        <v>1.31499999999999</v>
+        <v>1.63</v>
       </c>
       <c r="H476" s="5">
         <v>1</v>
@@ -16378,16 +16378,16 @@
         <v>65</v>
       </c>
       <c r="D477" s="5">
-        <v>2.72</v>
+        <v>3.68000000000001</v>
       </c>
       <c r="E477" s="5">
         <v>1</v>
       </c>
       <c r="F477" s="5">
-        <v>2.28</v>
+        <v>1.64</v>
       </c>
       <c r="G477" s="5">
-        <v>1.31999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="H477" s="5">
         <v>1</v>
@@ -16411,16 +16411,16 @@
         <v>66</v>
       </c>
       <c r="D478" s="5">
-        <v>2.7</v>
+        <v>3.67500000000001</v>
       </c>
       <c r="E478" s="5">
         <v>1</v>
       </c>
       <c r="F478" s="5">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="G478" s="5">
-        <v>1.32499999999999</v>
+        <v>1.65</v>
       </c>
       <c r="H478" s="5">
         <v>1</v>
@@ -16444,16 +16444,16 @@
         <v>67</v>
       </c>
       <c r="D479" s="5">
-        <v>2.68</v>
+        <v>3.67000000000001</v>
       </c>
       <c r="E479" s="5">
         <v>1</v>
       </c>
       <c r="F479" s="5">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="G479" s="5">
-        <v>1.32999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="H479" s="5">
         <v>1</v>
@@ -16477,16 +16477,16 @@
         <v>68</v>
       </c>
       <c r="D480" s="5">
-        <v>2.66</v>
+        <v>3.66500000000001</v>
       </c>
       <c r="E480" s="5">
         <v>1</v>
       </c>
       <c r="F480" s="5">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="G480" s="5">
-        <v>1.33499999999999</v>
+        <v>1.67</v>
       </c>
       <c r="H480" s="5">
         <v>1</v>
@@ -16510,16 +16510,16 @@
         <v>69</v>
       </c>
       <c r="D481" s="5">
-        <v>2.64</v>
+        <v>3.66000000000001</v>
       </c>
       <c r="E481" s="5">
         <v>1</v>
       </c>
       <c r="F481" s="5">
-        <v>2.36</v>
+        <v>1.68</v>
       </c>
       <c r="G481" s="5">
-        <v>1.33999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="H481" s="5">
         <v>1</v>
@@ -16543,16 +16543,16 @@
         <v>70</v>
       </c>
       <c r="D482" s="5">
-        <v>2.62</v>
+        <v>3.65500000000001</v>
       </c>
       <c r="E482" s="5">
         <v>1</v>
       </c>
       <c r="F482" s="5">
-        <v>2.38</v>
+        <v>1.69</v>
       </c>
       <c r="G482" s="5">
-        <v>1.34499999999999</v>
+        <v>1.69</v>
       </c>
       <c r="H482" s="5">
         <v>1</v>
@@ -16576,16 +16576,16 @@
         <v>71</v>
       </c>
       <c r="D483" s="5">
-        <v>2.6</v>
+        <v>3.65000000000001</v>
       </c>
       <c r="E483" s="5">
         <v>1</v>
       </c>
       <c r="F483" s="5">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="G483" s="5">
-        <v>1.34999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H483" s="5">
         <v>1</v>
@@ -16609,16 +16609,16 @@
         <v>72</v>
       </c>
       <c r="D484" s="5">
-        <v>2.58</v>
+        <v>3.64500000000001</v>
       </c>
       <c r="E484" s="5">
         <v>1</v>
       </c>
       <c r="F484" s="5">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="G484" s="5">
-        <v>1.35499999999999</v>
+        <v>1.71</v>
       </c>
       <c r="H484" s="5">
         <v>1</v>
@@ -16642,16 +16642,16 @@
         <v>73</v>
       </c>
       <c r="D485" s="5">
-        <v>2.56</v>
+        <v>3.64000000000001</v>
       </c>
       <c r="E485" s="5">
         <v>1</v>
       </c>
       <c r="F485" s="5">
-        <v>2.44</v>
+        <v>1.72</v>
       </c>
       <c r="G485" s="5">
-        <v>1.35999999999999</v>
+        <v>1.72</v>
       </c>
       <c r="H485" s="5">
         <v>1</v>
@@ -16675,16 +16675,16 @@
         <v>74</v>
       </c>
       <c r="D486" s="5">
-        <v>2.54</v>
+        <v>3.63500000000001</v>
       </c>
       <c r="E486" s="5">
         <v>1</v>
       </c>
       <c r="F486" s="5">
-        <v>2.46</v>
+        <v>1.73</v>
       </c>
       <c r="G486" s="5">
-        <v>1.36499999999999</v>
+        <v>1.73</v>
       </c>
       <c r="H486" s="5">
         <v>1</v>
@@ -16708,16 +16708,16 @@
         <v>75</v>
       </c>
       <c r="D487" s="5">
-        <v>2.52</v>
+        <v>3.63000000000001</v>
       </c>
       <c r="E487" s="5">
         <v>1</v>
       </c>
       <c r="F487" s="5">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="G487" s="5">
-        <v>1.36999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="H487" s="5">
         <v>1</v>
@@ -16741,16 +16741,16 @@
         <v>76</v>
       </c>
       <c r="D488" s="5">
-        <v>2.5</v>
+        <v>3.62500000000001</v>
       </c>
       <c r="E488" s="5">
         <v>1</v>
       </c>
       <c r="F488" s="5">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="G488" s="5">
-        <v>1.37499999999999</v>
+        <v>1.75</v>
       </c>
       <c r="H488" s="5">
         <v>1</v>
@@ -16774,16 +16774,16 @@
         <v>77</v>
       </c>
       <c r="D489" s="5">
-        <v>2.48</v>
+        <v>3.62000000000001</v>
       </c>
       <c r="E489" s="5">
         <v>1</v>
       </c>
       <c r="F489" s="5">
-        <v>2.52</v>
+        <v>1.76</v>
       </c>
       <c r="G489" s="5">
-        <v>1.37999999999999</v>
+        <v>1.76</v>
       </c>
       <c r="H489" s="5">
         <v>1</v>
@@ -16807,16 +16807,16 @@
         <v>78</v>
       </c>
       <c r="D490" s="5">
-        <v>2.46</v>
+        <v>3.61500000000001</v>
       </c>
       <c r="E490" s="5">
         <v>1</v>
       </c>
       <c r="F490" s="5">
-        <v>2.54</v>
+        <v>1.77</v>
       </c>
       <c r="G490" s="5">
-        <v>1.38499999999999</v>
+        <v>1.77</v>
       </c>
       <c r="H490" s="5">
         <v>1</v>
@@ -16840,16 +16840,16 @@
         <v>79</v>
       </c>
       <c r="D491" s="5">
-        <v>2.44</v>
+        <v>3.61000000000001</v>
       </c>
       <c r="E491" s="5">
         <v>1</v>
       </c>
       <c r="F491" s="5">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="G491" s="5">
-        <v>1.38999999999999</v>
+        <v>1.78</v>
       </c>
       <c r="H491" s="5">
         <v>1</v>
@@ -16873,16 +16873,16 @@
         <v>80</v>
       </c>
       <c r="D492" s="5">
-        <v>2.42</v>
+        <v>3.60500000000001</v>
       </c>
       <c r="E492" s="5">
         <v>1</v>
       </c>
       <c r="F492" s="5">
-        <v>2.58</v>
+        <v>1.79</v>
       </c>
       <c r="G492" s="5">
-        <v>1.39499999999999</v>
+        <v>1.79</v>
       </c>
       <c r="H492" s="5">
         <v>1</v>
@@ -16906,16 +16906,16 @@
         <v>81</v>
       </c>
       <c r="D493" s="5">
-        <v>2.4</v>
+        <v>3.60000000000001</v>
       </c>
       <c r="E493" s="5">
         <v>1</v>
       </c>
       <c r="F493" s="5">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="G493" s="5">
-        <v>1.39999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H493" s="5">
         <v>1</v>
@@ -16939,16 +16939,16 @@
         <v>82</v>
       </c>
       <c r="D494" s="5">
-        <v>2.38</v>
+        <v>3.59500000000001</v>
       </c>
       <c r="E494" s="5">
         <v>1</v>
       </c>
       <c r="F494" s="5">
-        <v>2.62</v>
+        <v>1.81</v>
       </c>
       <c r="G494" s="5">
-        <v>1.40499999999999</v>
+        <v>1.81</v>
       </c>
       <c r="H494" s="5">
         <v>1</v>
@@ -16972,16 +16972,16 @@
         <v>83</v>
       </c>
       <c r="D495" s="5">
-        <v>2.36</v>
+        <v>3.59000000000001</v>
       </c>
       <c r="E495" s="5">
         <v>1</v>
       </c>
       <c r="F495" s="5">
-        <v>2.64</v>
+        <v>1.82</v>
       </c>
       <c r="G495" s="5">
-        <v>1.40999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="H495" s="5">
         <v>1</v>
@@ -17005,16 +17005,16 @@
         <v>84</v>
       </c>
       <c r="D496" s="5">
-        <v>2.34</v>
+        <v>3.58500000000001</v>
       </c>
       <c r="E496" s="5">
         <v>1</v>
       </c>
       <c r="F496" s="5">
-        <v>2.66</v>
+        <v>1.83</v>
       </c>
       <c r="G496" s="5">
-        <v>1.41499999999999</v>
+        <v>1.83</v>
       </c>
       <c r="H496" s="5">
         <v>1</v>
@@ -17038,16 +17038,16 @@
         <v>85</v>
       </c>
       <c r="D497" s="5">
-        <v>2.32</v>
+        <v>3.58000000000001</v>
       </c>
       <c r="E497" s="5">
         <v>1</v>
       </c>
       <c r="F497" s="5">
-        <v>2.68</v>
+        <v>1.84</v>
       </c>
       <c r="G497" s="5">
-        <v>1.41999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="H497" s="5">
         <v>1</v>
@@ -17071,16 +17071,16 @@
         <v>86</v>
       </c>
       <c r="D498" s="5">
-        <v>2.3</v>
+        <v>3.57500000000001</v>
       </c>
       <c r="E498" s="5">
         <v>1</v>
       </c>
       <c r="F498" s="5">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="G498" s="5">
-        <v>1.42499999999999</v>
+        <v>1.85</v>
       </c>
       <c r="H498" s="5">
         <v>1</v>
@@ -17104,16 +17104,16 @@
         <v>87</v>
       </c>
       <c r="D499" s="5">
-        <v>2.28</v>
+        <v>3.57000000000001</v>
       </c>
       <c r="E499" s="5">
         <v>1</v>
       </c>
       <c r="F499" s="5">
-        <v>2.72</v>
+        <v>1.86</v>
       </c>
       <c r="G499" s="5">
-        <v>1.42999999999999</v>
+        <v>1.86</v>
       </c>
       <c r="H499" s="5">
         <v>1</v>
@@ -17137,16 +17137,16 @@
         <v>88</v>
       </c>
       <c r="D500" s="5">
-        <v>2.26</v>
+        <v>3.56500000000001</v>
       </c>
       <c r="E500" s="5">
         <v>1</v>
       </c>
       <c r="F500" s="5">
-        <v>2.74</v>
+        <v>1.87</v>
       </c>
       <c r="G500" s="5">
-        <v>1.43499999999999</v>
+        <v>1.87</v>
       </c>
       <c r="H500" s="5">
         <v>1</v>
@@ -17170,16 +17170,16 @@
         <v>89</v>
       </c>
       <c r="D501" s="5">
-        <v>2.24</v>
+        <v>3.56000000000001</v>
       </c>
       <c r="E501" s="5">
         <v>1</v>
       </c>
       <c r="F501" s="5">
-        <v>2.76</v>
+        <v>1.88</v>
       </c>
       <c r="G501" s="5">
-        <v>1.43999999999999</v>
+        <v>1.88</v>
       </c>
       <c r="H501" s="5">
         <v>1</v>
@@ -17203,16 +17203,16 @@
         <v>90</v>
       </c>
       <c r="D502" s="5">
-        <v>2.22</v>
+        <v>3.55500000000001</v>
       </c>
       <c r="E502" s="5">
         <v>1</v>
       </c>
       <c r="F502" s="5">
-        <v>2.78</v>
+        <v>1.89</v>
       </c>
       <c r="G502" s="5">
-        <v>1.44499999999999</v>
+        <v>1.89</v>
       </c>
       <c r="H502" s="5">
         <v>1</v>
@@ -17236,16 +17236,16 @@
         <v>91</v>
       </c>
       <c r="D503" s="5">
-        <v>2.2</v>
+        <v>3.55000000000001</v>
       </c>
       <c r="E503" s="5">
         <v>1</v>
       </c>
       <c r="F503" s="5">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="G503" s="5">
-        <v>1.44999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H503" s="5">
         <v>1</v>
@@ -17269,16 +17269,16 @@
         <v>92</v>
       </c>
       <c r="D504" s="5">
-        <v>2.18</v>
+        <v>3.54500000000001</v>
       </c>
       <c r="E504" s="5">
         <v>1</v>
       </c>
       <c r="F504" s="5">
-        <v>2.82</v>
+        <v>1.91</v>
       </c>
       <c r="G504" s="5">
-        <v>1.45499999999999</v>
+        <v>1.91</v>
       </c>
       <c r="H504" s="5">
         <v>1</v>
@@ -17302,16 +17302,16 @@
         <v>93</v>
       </c>
       <c r="D505" s="5">
-        <v>2.16</v>
+        <v>3.54000000000001</v>
       </c>
       <c r="E505" s="5">
         <v>1</v>
       </c>
       <c r="F505" s="5">
-        <v>2.84</v>
+        <v>1.92</v>
       </c>
       <c r="G505" s="5">
-        <v>1.45999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="H505" s="5">
         <v>1</v>
@@ -17335,16 +17335,16 @@
         <v>94</v>
       </c>
       <c r="D506" s="5">
-        <v>2.14</v>
+        <v>3.53500000000001</v>
       </c>
       <c r="E506" s="5">
         <v>1</v>
       </c>
       <c r="F506" s="5">
-        <v>2.86</v>
+        <v>1.93</v>
       </c>
       <c r="G506" s="5">
-        <v>1.46499999999999</v>
+        <v>1.93</v>
       </c>
       <c r="H506" s="5">
         <v>1</v>
@@ -17368,16 +17368,16 @@
         <v>95</v>
       </c>
       <c r="D507" s="5">
-        <v>2.12</v>
+        <v>3.53000000000001</v>
       </c>
       <c r="E507" s="5">
         <v>1</v>
       </c>
       <c r="F507" s="5">
-        <v>2.88</v>
+        <v>1.94</v>
       </c>
       <c r="G507" s="5">
-        <v>1.46999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="H507" s="5">
         <v>1</v>
@@ -17401,16 +17401,16 @@
         <v>96</v>
       </c>
       <c r="D508" s="5">
-        <v>2.1</v>
+        <v>3.52500000000001</v>
       </c>
       <c r="E508" s="5">
         <v>1</v>
       </c>
       <c r="F508" s="5">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="G508" s="5">
-        <v>1.47499999999999</v>
+        <v>1.95</v>
       </c>
       <c r="H508" s="5">
         <v>1</v>
@@ -17434,16 +17434,16 @@
         <v>97</v>
       </c>
       <c r="D509" s="5">
-        <v>2.08</v>
+        <v>3.52000000000001</v>
       </c>
       <c r="E509" s="5">
         <v>1</v>
       </c>
       <c r="F509" s="5">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="G509" s="5">
-        <v>1.47999999999999</v>
+        <v>1.96</v>
       </c>
       <c r="H509" s="5">
         <v>1</v>
@@ -17467,16 +17467,16 @@
         <v>98</v>
       </c>
       <c r="D510" s="5">
-        <v>2.06</v>
+        <v>3.51500000000001</v>
       </c>
       <c r="E510" s="5">
         <v>1</v>
       </c>
       <c r="F510" s="5">
-        <v>2.94</v>
+        <v>1.97</v>
       </c>
       <c r="G510" s="5">
-        <v>1.48499999999999</v>
+        <v>1.97</v>
       </c>
       <c r="H510" s="5">
         <v>1</v>
@@ -17500,16 +17500,16 @@
         <v>99</v>
       </c>
       <c r="D511" s="5">
-        <v>2.04</v>
+        <v>3.51000000000001</v>
       </c>
       <c r="E511" s="5">
         <v>1</v>
       </c>
       <c r="F511" s="5">
-        <v>2.96</v>
+        <v>1.98</v>
       </c>
       <c r="G511" s="5">
-        <v>1.48999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="H511" s="5">
         <v>1</v>
@@ -17533,16 +17533,16 @@
         <v>100</v>
       </c>
       <c r="D512" s="5">
-        <v>2.02</v>
+        <v>3.50500000000001</v>
       </c>
       <c r="E512" s="5">
         <v>1</v>
       </c>
       <c r="F512" s="5">
-        <v>2.98</v>
+        <v>1.99</v>
       </c>
       <c r="G512" s="5">
-        <v>1.49499999999999</v>
+        <v>1.99</v>
       </c>
       <c r="H512" s="5">
         <v>1</v>

--- a/DestroyViruses/Assets/Tables/TableWeaponSpeedLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeaponSpeedLevel.xlsx
@@ -94,8 +94,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -112,6 +112,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -122,23 +130,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +152,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -159,9 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,14 +183,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,21 +214,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -225,9 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,16 +249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,7 +283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,13 +307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,19 +319,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +355,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,79 +421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,13 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,11 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,17 +495,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,15 +545,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -548,17 +554,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,9 +1068,9 @@
   <dimension ref="A1:K512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G507" sqref="G507"/>
+      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="1">
-        <v>3.98</v>
+        <v>1.984</v>
       </c>
       <c r="E108" s="1">
         <v>1.005</v>
@@ -4489,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="1">
-        <v>3.96</v>
+        <v>1.968</v>
       </c>
       <c r="E109" s="1">
         <v>1.01</v>
@@ -4522,7 +4522,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="1">
-        <v>3.94</v>
+        <v>1.952</v>
       </c>
       <c r="E110" s="1">
         <v>1.015</v>
@@ -4555,7 +4555,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1">
-        <v>3.92</v>
+        <v>1.936</v>
       </c>
       <c r="E111" s="1">
         <v>1.02</v>
@@ -4588,7 +4588,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="1">
-        <v>3.9</v>
+        <v>1.92</v>
       </c>
       <c r="E112" s="1">
         <v>1.025</v>
@@ -4621,7 +4621,7 @@
         <v>7</v>
       </c>
       <c r="D113" s="1">
-        <v>3.88</v>
+        <v>1.904</v>
       </c>
       <c r="E113" s="1">
         <v>1.03</v>
@@ -4654,7 +4654,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="1">
-        <v>3.86</v>
+        <v>1.888</v>
       </c>
       <c r="E114" s="1">
         <v>1.035</v>
@@ -4687,7 +4687,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="1">
-        <v>3.84</v>
+        <v>1.872</v>
       </c>
       <c r="E115" s="1">
         <v>1.04</v>
@@ -4720,7 +4720,7 @@
         <v>10</v>
       </c>
       <c r="D116" s="1">
-        <v>3.82</v>
+        <v>1.856</v>
       </c>
       <c r="E116" s="1">
         <v>1.045</v>
@@ -4753,7 +4753,7 @@
         <v>11</v>
       </c>
       <c r="D117" s="1">
-        <v>3.8</v>
+        <v>1.84</v>
       </c>
       <c r="E117" s="1">
         <v>1.05</v>
@@ -4786,7 +4786,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="1">
-        <v>3.78</v>
+        <v>1.824</v>
       </c>
       <c r="E118" s="1">
         <v>1.055</v>
@@ -4819,7 +4819,7 @@
         <v>13</v>
       </c>
       <c r="D119" s="1">
-        <v>3.76</v>
+        <v>1.808</v>
       </c>
       <c r="E119" s="1">
         <v>1.06</v>
@@ -4852,7 +4852,7 @@
         <v>14</v>
       </c>
       <c r="D120" s="1">
-        <v>3.74</v>
+        <v>1.792</v>
       </c>
       <c r="E120" s="1">
         <v>1.065</v>
@@ -4885,7 +4885,7 @@
         <v>15</v>
       </c>
       <c r="D121" s="1">
-        <v>3.72</v>
+        <v>1.776</v>
       </c>
       <c r="E121" s="1">
         <v>1.07</v>
@@ -4918,7 +4918,7 @@
         <v>16</v>
       </c>
       <c r="D122" s="1">
-        <v>3.7</v>
+        <v>1.76</v>
       </c>
       <c r="E122" s="1">
         <v>1.075</v>
@@ -4951,7 +4951,7 @@
         <v>17</v>
       </c>
       <c r="D123" s="1">
-        <v>3.68</v>
+        <v>1.744</v>
       </c>
       <c r="E123" s="1">
         <v>1.08</v>
@@ -4984,7 +4984,7 @@
         <v>18</v>
       </c>
       <c r="D124" s="1">
-        <v>3.66</v>
+        <v>1.728</v>
       </c>
       <c r="E124" s="1">
         <v>1.085</v>
@@ -5017,7 +5017,7 @@
         <v>19</v>
       </c>
       <c r="D125" s="1">
-        <v>3.64</v>
+        <v>1.712</v>
       </c>
       <c r="E125" s="1">
         <v>1.09</v>
@@ -5050,7 +5050,7 @@
         <v>20</v>
       </c>
       <c r="D126" s="1">
-        <v>3.62</v>
+        <v>1.696</v>
       </c>
       <c r="E126" s="1">
         <v>1.095</v>
@@ -5083,7 +5083,7 @@
         <v>21</v>
       </c>
       <c r="D127" s="1">
-        <v>3.6</v>
+        <v>1.68</v>
       </c>
       <c r="E127" s="1">
         <v>1.1</v>
@@ -5116,7 +5116,7 @@
         <v>22</v>
       </c>
       <c r="D128" s="1">
-        <v>3.58</v>
+        <v>1.664</v>
       </c>
       <c r="E128" s="1">
         <v>1.105</v>
@@ -5150,7 +5150,7 @@
         <v>23</v>
       </c>
       <c r="D129" s="1">
-        <v>3.56</v>
+        <v>1.648</v>
       </c>
       <c r="E129" s="1">
         <v>1.11</v>
@@ -5183,7 +5183,7 @@
         <v>24</v>
       </c>
       <c r="D130" s="1">
-        <v>3.54</v>
+        <v>1.632</v>
       </c>
       <c r="E130" s="1">
         <v>1.115</v>
@@ -5216,7 +5216,7 @@
         <v>25</v>
       </c>
       <c r="D131" s="1">
-        <v>3.52</v>
+        <v>1.616</v>
       </c>
       <c r="E131" s="1">
         <v>1.12</v>
@@ -5249,7 +5249,7 @@
         <v>26</v>
       </c>
       <c r="D132" s="1">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="E132" s="1">
         <v>1.125</v>
@@ -5282,7 +5282,7 @@
         <v>27</v>
       </c>
       <c r="D133" s="1">
-        <v>3.48</v>
+        <v>1.584</v>
       </c>
       <c r="E133" s="1">
         <v>1.13</v>
@@ -5315,7 +5315,7 @@
         <v>28</v>
       </c>
       <c r="D134" s="1">
-        <v>3.46</v>
+        <v>1.568</v>
       </c>
       <c r="E134" s="1">
         <v>1.135</v>
@@ -5348,7 +5348,7 @@
         <v>29</v>
       </c>
       <c r="D135" s="1">
-        <v>3.44</v>
+        <v>1.552</v>
       </c>
       <c r="E135" s="1">
         <v>1.14</v>
@@ -5381,7 +5381,7 @@
         <v>30</v>
       </c>
       <c r="D136" s="1">
-        <v>3.42</v>
+        <v>1.536</v>
       </c>
       <c r="E136" s="1">
         <v>1.145</v>
@@ -5414,7 +5414,7 @@
         <v>31</v>
       </c>
       <c r="D137" s="1">
-        <v>3.4</v>
+        <v>1.52</v>
       </c>
       <c r="E137" s="1">
         <v>1.15</v>
@@ -5447,7 +5447,7 @@
         <v>32</v>
       </c>
       <c r="D138" s="1">
-        <v>3.38</v>
+        <v>1.504</v>
       </c>
       <c r="E138" s="1">
         <v>1.155</v>
@@ -5480,7 +5480,7 @@
         <v>33</v>
       </c>
       <c r="D139" s="1">
-        <v>3.36</v>
+        <v>1.488</v>
       </c>
       <c r="E139" s="1">
         <v>1.16</v>
@@ -5513,7 +5513,7 @@
         <v>34</v>
       </c>
       <c r="D140" s="1">
-        <v>3.34</v>
+        <v>1.472</v>
       </c>
       <c r="E140" s="1">
         <v>1.165</v>
@@ -5546,7 +5546,7 @@
         <v>35</v>
       </c>
       <c r="D141" s="1">
-        <v>3.32</v>
+        <v>1.456</v>
       </c>
       <c r="E141" s="1">
         <v>1.17</v>
@@ -5579,7 +5579,7 @@
         <v>36</v>
       </c>
       <c r="D142" s="1">
-        <v>3.3</v>
+        <v>1.44</v>
       </c>
       <c r="E142" s="1">
         <v>1.175</v>
@@ -5612,7 +5612,7 @@
         <v>37</v>
       </c>
       <c r="D143" s="1">
-        <v>3.28</v>
+        <v>1.424</v>
       </c>
       <c r="E143" s="1">
         <v>1.18</v>
@@ -5645,7 +5645,7 @@
         <v>38</v>
       </c>
       <c r="D144" s="1">
-        <v>3.26</v>
+        <v>1.408</v>
       </c>
       <c r="E144" s="1">
         <v>1.185</v>
@@ -5678,7 +5678,7 @@
         <v>39</v>
       </c>
       <c r="D145" s="1">
-        <v>3.24</v>
+        <v>1.392</v>
       </c>
       <c r="E145" s="1">
         <v>1.19</v>
@@ -5711,7 +5711,7 @@
         <v>40</v>
       </c>
       <c r="D146" s="1">
-        <v>3.22</v>
+        <v>1.376</v>
       </c>
       <c r="E146" s="1">
         <v>1.195</v>
@@ -5744,7 +5744,7 @@
         <v>41</v>
       </c>
       <c r="D147" s="1">
-        <v>3.2</v>
+        <v>1.36</v>
       </c>
       <c r="E147" s="1">
         <v>1.2</v>
@@ -5777,7 +5777,7 @@
         <v>42</v>
       </c>
       <c r="D148" s="1">
-        <v>3.18</v>
+        <v>1.344</v>
       </c>
       <c r="E148" s="1">
         <v>1.205</v>
@@ -5810,7 +5810,7 @@
         <v>43</v>
       </c>
       <c r="D149" s="1">
-        <v>3.16</v>
+        <v>1.328</v>
       </c>
       <c r="E149" s="1">
         <v>1.21</v>
@@ -5843,7 +5843,7 @@
         <v>44</v>
       </c>
       <c r="D150" s="1">
-        <v>3.14</v>
+        <v>1.312</v>
       </c>
       <c r="E150" s="1">
         <v>1.215</v>
@@ -5876,7 +5876,7 @@
         <v>45</v>
       </c>
       <c r="D151" s="1">
-        <v>3.12</v>
+        <v>1.296</v>
       </c>
       <c r="E151" s="1">
         <v>1.22</v>
@@ -5909,7 +5909,7 @@
         <v>46</v>
       </c>
       <c r="D152" s="1">
-        <v>3.1</v>
+        <v>1.28</v>
       </c>
       <c r="E152" s="1">
         <v>1.225</v>
@@ -5942,7 +5942,7 @@
         <v>47</v>
       </c>
       <c r="D153" s="1">
-        <v>3.08</v>
+        <v>1.264</v>
       </c>
       <c r="E153" s="1">
         <v>1.23</v>
@@ -5975,7 +5975,7 @@
         <v>48</v>
       </c>
       <c r="D154" s="1">
-        <v>3.06</v>
+        <v>1.248</v>
       </c>
       <c r="E154" s="1">
         <v>1.23499999999999</v>
@@ -6008,7 +6008,7 @@
         <v>49</v>
       </c>
       <c r="D155" s="1">
-        <v>3.04</v>
+        <v>1.232</v>
       </c>
       <c r="E155" s="1">
         <v>1.23999999999999</v>
@@ -6041,7 +6041,7 @@
         <v>50</v>
       </c>
       <c r="D156" s="1">
-        <v>3.02</v>
+        <v>1.216</v>
       </c>
       <c r="E156" s="1">
         <v>1.24499999999999</v>
@@ -6074,7 +6074,7 @@
         <v>51</v>
       </c>
       <c r="D157" s="1">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="E157" s="1">
         <v>1.24999999999999</v>
@@ -6107,7 +6107,7 @@
         <v>52</v>
       </c>
       <c r="D158" s="1">
-        <v>2.98</v>
+        <v>1.184</v>
       </c>
       <c r="E158" s="1">
         <v>1.25499999999999</v>
@@ -6140,7 +6140,7 @@
         <v>53</v>
       </c>
       <c r="D159" s="1">
-        <v>2.96</v>
+        <v>1.168</v>
       </c>
       <c r="E159" s="1">
         <v>1.25999999999999</v>
@@ -6173,7 +6173,7 @@
         <v>54</v>
       </c>
       <c r="D160" s="1">
-        <v>2.94</v>
+        <v>1.152</v>
       </c>
       <c r="E160" s="1">
         <v>1.26499999999999</v>
@@ -6206,7 +6206,7 @@
         <v>55</v>
       </c>
       <c r="D161" s="1">
-        <v>2.92</v>
+        <v>1.136</v>
       </c>
       <c r="E161" s="1">
         <v>1.26999999999999</v>
@@ -6239,7 +6239,7 @@
         <v>56</v>
       </c>
       <c r="D162" s="1">
-        <v>2.9</v>
+        <v>1.12</v>
       </c>
       <c r="E162" s="1">
         <v>1.27499999999999</v>
@@ -6272,7 +6272,7 @@
         <v>57</v>
       </c>
       <c r="D163" s="1">
-        <v>2.88</v>
+        <v>1.104</v>
       </c>
       <c r="E163" s="1">
         <v>1.27999999999999</v>
@@ -6305,7 +6305,7 @@
         <v>58</v>
       </c>
       <c r="D164" s="1">
-        <v>2.86</v>
+        <v>1.088</v>
       </c>
       <c r="E164" s="1">
         <v>1.28499999999999</v>
@@ -6338,7 +6338,7 @@
         <v>59</v>
       </c>
       <c r="D165" s="1">
-        <v>2.84</v>
+        <v>1.072</v>
       </c>
       <c r="E165" s="1">
         <v>1.28999999999999</v>
@@ -6371,7 +6371,7 @@
         <v>60</v>
       </c>
       <c r="D166" s="1">
-        <v>2.82</v>
+        <v>1.056</v>
       </c>
       <c r="E166" s="1">
         <v>1.29499999999999</v>
@@ -6404,7 +6404,7 @@
         <v>61</v>
       </c>
       <c r="D167" s="1">
-        <v>2.8</v>
+        <v>1.04</v>
       </c>
       <c r="E167" s="1">
         <v>1.29999999999999</v>
@@ -6437,7 +6437,7 @@
         <v>62</v>
       </c>
       <c r="D168" s="1">
-        <v>2.78</v>
+        <v>1.024</v>
       </c>
       <c r="E168" s="1">
         <v>1.30499999999999</v>
@@ -6470,7 +6470,7 @@
         <v>63</v>
       </c>
       <c r="D169" s="1">
-        <v>2.76</v>
+        <v>1.008</v>
       </c>
       <c r="E169" s="1">
         <v>1.30999999999999</v>
@@ -6503,7 +6503,7 @@
         <v>64</v>
       </c>
       <c r="D170" s="1">
-        <v>2.74</v>
+        <v>0.991999999999999</v>
       </c>
       <c r="E170" s="1">
         <v>1.31499999999999</v>
@@ -6536,7 +6536,7 @@
         <v>65</v>
       </c>
       <c r="D171" s="1">
-        <v>2.72</v>
+        <v>0.975999999999999</v>
       </c>
       <c r="E171" s="1">
         <v>1.31999999999999</v>
@@ -6569,7 +6569,7 @@
         <v>66</v>
       </c>
       <c r="D172" s="1">
-        <v>2.7</v>
+        <v>0.959999999999999</v>
       </c>
       <c r="E172" s="1">
         <v>1.32499999999999</v>
@@ -6602,7 +6602,7 @@
         <v>67</v>
       </c>
       <c r="D173" s="1">
-        <v>2.68</v>
+        <v>0.943999999999999</v>
       </c>
       <c r="E173" s="1">
         <v>1.32999999999999</v>
@@ -6635,7 +6635,7 @@
         <v>68</v>
       </c>
       <c r="D174" s="1">
-        <v>2.66</v>
+        <v>0.927999999999999</v>
       </c>
       <c r="E174" s="1">
         <v>1.33499999999999</v>
@@ -6668,7 +6668,7 @@
         <v>69</v>
       </c>
       <c r="D175" s="1">
-        <v>2.64</v>
+        <v>0.911999999999999</v>
       </c>
       <c r="E175" s="1">
         <v>1.33999999999999</v>
@@ -6701,7 +6701,7 @@
         <v>70</v>
       </c>
       <c r="D176" s="1">
-        <v>2.62</v>
+        <v>0.895999999999999</v>
       </c>
       <c r="E176" s="1">
         <v>1.34499999999999</v>
@@ -6734,7 +6734,7 @@
         <v>71</v>
       </c>
       <c r="D177" s="1">
-        <v>2.6</v>
+        <v>0.879999999999999</v>
       </c>
       <c r="E177" s="1">
         <v>1.34999999999999</v>
@@ -6767,7 +6767,7 @@
         <v>72</v>
       </c>
       <c r="D178" s="1">
-        <v>2.58</v>
+        <v>0.863999999999999</v>
       </c>
       <c r="E178" s="1">
         <v>1.35499999999999</v>
@@ -6800,7 +6800,7 @@
         <v>73</v>
       </c>
       <c r="D179" s="1">
-        <v>2.56</v>
+        <v>0.847999999999999</v>
       </c>
       <c r="E179" s="1">
         <v>1.35999999999999</v>
@@ -6833,7 +6833,7 @@
         <v>74</v>
       </c>
       <c r="D180" s="1">
-        <v>2.54</v>
+        <v>0.831999999999999</v>
       </c>
       <c r="E180" s="1">
         <v>1.36499999999999</v>
@@ -6866,7 +6866,7 @@
         <v>75</v>
       </c>
       <c r="D181" s="1">
-        <v>2.52</v>
+        <v>0.815999999999999</v>
       </c>
       <c r="E181" s="1">
         <v>1.36999999999999</v>
@@ -6899,7 +6899,7 @@
         <v>76</v>
       </c>
       <c r="D182" s="1">
-        <v>2.5</v>
+        <v>0.799999999999999</v>
       </c>
       <c r="E182" s="1">
         <v>1.37499999999999</v>
@@ -6932,7 +6932,7 @@
         <v>77</v>
       </c>
       <c r="D183" s="1">
-        <v>2.48</v>
+        <v>0.783999999999999</v>
       </c>
       <c r="E183" s="1">
         <v>1.37999999999999</v>
@@ -6965,7 +6965,7 @@
         <v>78</v>
       </c>
       <c r="D184" s="1">
-        <v>2.46</v>
+        <v>0.767999999999999</v>
       </c>
       <c r="E184" s="1">
         <v>1.38499999999999</v>
@@ -6998,7 +6998,7 @@
         <v>79</v>
       </c>
       <c r="D185" s="1">
-        <v>2.44</v>
+        <v>0.751999999999999</v>
       </c>
       <c r="E185" s="1">
         <v>1.38999999999999</v>
@@ -7031,7 +7031,7 @@
         <v>80</v>
       </c>
       <c r="D186" s="1">
-        <v>2.42</v>
+        <v>0.735999999999999</v>
       </c>
       <c r="E186" s="1">
         <v>1.39499999999999</v>
@@ -7064,7 +7064,7 @@
         <v>81</v>
       </c>
       <c r="D187" s="1">
-        <v>2.4</v>
+        <v>0.719999999999999</v>
       </c>
       <c r="E187" s="1">
         <v>1.39999999999999</v>
@@ -7097,7 +7097,7 @@
         <v>82</v>
       </c>
       <c r="D188" s="1">
-        <v>2.38</v>
+        <v>0.703999999999999</v>
       </c>
       <c r="E188" s="1">
         <v>1.40499999999999</v>
@@ -7130,7 +7130,7 @@
         <v>83</v>
       </c>
       <c r="D189" s="1">
-        <v>2.36</v>
+        <v>0.687999999999999</v>
       </c>
       <c r="E189" s="1">
         <v>1.40999999999999</v>
@@ -7163,7 +7163,7 @@
         <v>84</v>
       </c>
       <c r="D190" s="1">
-        <v>2.34</v>
+        <v>0.671999999999999</v>
       </c>
       <c r="E190" s="1">
         <v>1.41499999999999</v>
@@ -7196,7 +7196,7 @@
         <v>85</v>
       </c>
       <c r="D191" s="1">
-        <v>2.32</v>
+        <v>0.655999999999999</v>
       </c>
       <c r="E191" s="1">
         <v>1.41999999999999</v>
@@ -7229,7 +7229,7 @@
         <v>86</v>
       </c>
       <c r="D192" s="1">
-        <v>2.3</v>
+        <v>0.639999999999999</v>
       </c>
       <c r="E192" s="1">
         <v>1.42499999999999</v>
@@ -7262,7 +7262,7 @@
         <v>87</v>
       </c>
       <c r="D193" s="1">
-        <v>2.28</v>
+        <v>0.623999999999999</v>
       </c>
       <c r="E193" s="1">
         <v>1.42999999999999</v>
@@ -7295,7 +7295,7 @@
         <v>88</v>
       </c>
       <c r="D194" s="1">
-        <v>2.26</v>
+        <v>0.607999999999999</v>
       </c>
       <c r="E194" s="1">
         <v>1.43499999999999</v>
@@ -7328,7 +7328,7 @@
         <v>89</v>
       </c>
       <c r="D195" s="1">
-        <v>2.24</v>
+        <v>0.591999999999999</v>
       </c>
       <c r="E195" s="1">
         <v>1.43999999999999</v>
@@ -7361,7 +7361,7 @@
         <v>90</v>
       </c>
       <c r="D196" s="1">
-        <v>2.22</v>
+        <v>0.575999999999999</v>
       </c>
       <c r="E196" s="1">
         <v>1.44499999999999</v>
@@ -7394,7 +7394,7 @@
         <v>91</v>
       </c>
       <c r="D197" s="1">
-        <v>2.2</v>
+        <v>0.559999999999999</v>
       </c>
       <c r="E197" s="1">
         <v>1.44999999999999</v>
@@ -7427,7 +7427,7 @@
         <v>92</v>
       </c>
       <c r="D198" s="1">
-        <v>2.18</v>
+        <v>0.543999999999999</v>
       </c>
       <c r="E198" s="1">
         <v>1.45499999999999</v>
@@ -7460,7 +7460,7 @@
         <v>93</v>
       </c>
       <c r="D199" s="1">
-        <v>2.16</v>
+        <v>0.527999999999999</v>
       </c>
       <c r="E199" s="1">
         <v>1.45999999999999</v>
@@ -7493,7 +7493,7 @@
         <v>94</v>
       </c>
       <c r="D200" s="1">
-        <v>2.14</v>
+        <v>0.511999999999999</v>
       </c>
       <c r="E200" s="1">
         <v>1.46499999999999</v>
@@ -7526,7 +7526,7 @@
         <v>95</v>
       </c>
       <c r="D201" s="1">
-        <v>2.12</v>
+        <v>0.495999999999999</v>
       </c>
       <c r="E201" s="1">
         <v>1.46999999999999</v>
@@ -7559,7 +7559,7 @@
         <v>96</v>
       </c>
       <c r="D202" s="1">
-        <v>2.1</v>
+        <v>0.479999999999999</v>
       </c>
       <c r="E202" s="1">
         <v>1.47499999999999</v>
@@ -7592,7 +7592,7 @@
         <v>97</v>
       </c>
       <c r="D203" s="1">
-        <v>2.08</v>
+        <v>0.463999999999999</v>
       </c>
       <c r="E203" s="1">
         <v>1.47999999999999</v>
@@ -7625,7 +7625,7 @@
         <v>98</v>
       </c>
       <c r="D204" s="1">
-        <v>2.06</v>
+        <v>0.447999999999999</v>
       </c>
       <c r="E204" s="1">
         <v>1.48499999999999</v>
@@ -7658,7 +7658,7 @@
         <v>99</v>
       </c>
       <c r="D205" s="1">
-        <v>2.04</v>
+        <v>0.431999999999999</v>
       </c>
       <c r="E205" s="1">
         <v>1.48999999999999</v>
@@ -7691,7 +7691,7 @@
         <v>100</v>
       </c>
       <c r="D206" s="1">
-        <v>2.02</v>
+        <v>0.415999999999999</v>
       </c>
       <c r="E206" s="1">
         <v>1.49499999999999</v>
@@ -17533,7 +17533,7 @@
         <v>100</v>
       </c>
       <c r="D512" s="5">
-        <v>3.50500000000001</v>
+        <v>3</v>
       </c>
       <c r="E512" s="5">
         <v>1</v>
